--- a/02_Proyecto/12. Métricas/05_Cuaderno_trabajo.xlsx
+++ b/02_Proyecto/12. Métricas/05_Cuaderno_trabajo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEMESTRE OCT24-MAR25\ASEGURAMIENTO\PARCIAL3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{768B346E-EEDA-41AE-9F38-8C068BA79974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6BD225C-48F6-4E84-AD69-47DC5455A57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B51B4B5F-3DBA-4896-AEC2-CA3D085B4FCB}"/>
   </bookViews>
@@ -623,12 +623,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -636,8 +635,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
@@ -725,21 +722,21 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -750,6 +747,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -767,10 +767,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1072,21 +1068,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B2BF75D-C634-49E1-BA10-F52AB6CCBF32}">
   <dimension ref="B1:N54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="9.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="44.5546875" style="1" customWidth="1"/>
     <col min="5" max="6" width="9.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" style="40" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" style="28" customWidth="1"/>
-    <col min="9" max="12" width="9.33203125" style="20" customWidth="1"/>
-    <col min="13" max="13" width="12.33203125" style="28" customWidth="1"/>
-    <col min="14" max="14" width="9.33203125" style="20"/>
+    <col min="7" max="7" width="9.33203125" style="37" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" style="25" customWidth="1"/>
+    <col min="9" max="12" width="9.33203125" style="17" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" style="25" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" style="17"/>
     <col min="15" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
@@ -1097,88 +1093,88 @@
     </row>
     <row r="2" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="33" t="s">
+      <c r="B3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="29">
+      <c r="M3" s="26">
         <v>45693</v>
       </c>
-      <c r="N3" s="21"/>
+      <c r="N3" s="18"/>
     </row>
     <row r="4" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="51"/>
-      <c r="G5" s="50" t="s">
+      <c r="F5" s="48"/>
+      <c r="G5" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="52"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="50" t="s">
+      <c r="H5" s="49"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="53"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="50"/>
     </row>
     <row r="6" spans="2:14" s="2" customFormat="1" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="42" t="s">
+      <c r="G6" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="36" t="s">
+      <c r="I6" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="25" t="s">
+      <c r="J6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="25" t="s">
+      <c r="K6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="25" t="s">
+      <c r="L6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="30" t="s">
+      <c r="M6" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="22" t="s">
+      <c r="N6" s="19" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1186,1348 +1182,1478 @@
       <c r="B7" s="45">
         <v>1</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="16">
         <v>45590</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="43">
+      <c r="E7" s="34">
+        <v>5</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="40">
         <v>6</v>
       </c>
-      <c r="H7" s="39">
-        <v>1</v>
-      </c>
-      <c r="I7" s="37">
-        <v>2</v>
-      </c>
-      <c r="J7" s="26">
+      <c r="H7" s="36">
+        <v>1</v>
+      </c>
+      <c r="I7" s="34">
+        <v>2</v>
+      </c>
+      <c r="J7" s="23">
         <v>6</v>
       </c>
-      <c r="K7" s="26">
-        <v>1</v>
-      </c>
-      <c r="L7" s="26">
-        <v>2</v>
-      </c>
-      <c r="M7" s="31">
-        <v>2</v>
-      </c>
-      <c r="N7" s="23">
+      <c r="K7" s="23">
+        <v>1</v>
+      </c>
+      <c r="L7" s="23">
+        <v>2</v>
+      </c>
+      <c r="M7" s="28">
+        <v>2</v>
+      </c>
+      <c r="N7" s="20">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="46"/>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="49"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="44"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="45">
         <v>2</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="16">
         <v>45593</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="43">
+      <c r="E9" s="34">
+        <v>2</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2</v>
+      </c>
+      <c r="G9" s="40">
         <v>3</v>
       </c>
-      <c r="H9" s="39">
-        <v>2</v>
-      </c>
-      <c r="I9" s="37">
-        <v>2</v>
-      </c>
-      <c r="J9" s="26">
+      <c r="H9" s="36">
+        <v>2</v>
+      </c>
+      <c r="I9" s="34">
+        <v>2</v>
+      </c>
+      <c r="J9" s="23">
         <v>3</v>
       </c>
-      <c r="K9" s="26">
-        <v>2</v>
-      </c>
-      <c r="L9" s="34">
-        <v>2</v>
-      </c>
-      <c r="M9" s="31">
-        <v>1</v>
-      </c>
-      <c r="N9" s="23">
+      <c r="K9" s="23">
+        <v>2</v>
+      </c>
+      <c r="L9" s="31">
+        <v>2</v>
+      </c>
+      <c r="M9" s="28">
+        <v>1</v>
+      </c>
+      <c r="N9" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="46"/>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="49"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="44"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="45">
         <v>3</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="16">
         <v>45594</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="43">
+      <c r="E11" s="34">
+        <v>8</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="40">
         <v>7</v>
       </c>
-      <c r="H11" s="39">
-        <v>1</v>
-      </c>
-      <c r="I11" s="37">
-        <v>2</v>
-      </c>
-      <c r="J11" s="26">
+      <c r="H11" s="36">
+        <v>1</v>
+      </c>
+      <c r="I11" s="34">
+        <v>2</v>
+      </c>
+      <c r="J11" s="23">
         <v>7</v>
       </c>
-      <c r="K11" s="26">
-        <v>1</v>
-      </c>
-      <c r="L11" s="34">
-        <v>2</v>
-      </c>
-      <c r="M11" s="31">
-        <v>1</v>
-      </c>
-      <c r="N11" s="23">
+      <c r="K11" s="23">
+        <v>1</v>
+      </c>
+      <c r="L11" s="31">
+        <v>2</v>
+      </c>
+      <c r="M11" s="28">
+        <v>1</v>
+      </c>
+      <c r="N11" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="46"/>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="49"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="44"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="45">
         <v>4</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="16">
         <v>45595</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="43">
+      <c r="E13" s="34">
+        <v>5</v>
+      </c>
+      <c r="F13" s="4">
+        <v>2</v>
+      </c>
+      <c r="G13" s="40">
         <v>4</v>
       </c>
-      <c r="H13" s="39">
-        <v>2</v>
-      </c>
-      <c r="I13" s="37">
+      <c r="H13" s="36">
+        <v>2</v>
+      </c>
+      <c r="I13" s="34">
         <v>3</v>
       </c>
-      <c r="J13" s="26">
+      <c r="J13" s="23">
         <v>4</v>
       </c>
-      <c r="K13" s="26">
-        <v>2</v>
-      </c>
-      <c r="L13" s="34">
+      <c r="K13" s="23">
+        <v>2</v>
+      </c>
+      <c r="L13" s="31">
         <v>3</v>
       </c>
-      <c r="M13" s="31">
+      <c r="M13" s="28">
         <v>3</v>
       </c>
-      <c r="N13" s="23">
+      <c r="N13" s="20">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="46"/>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="47" t="s">
+      <c r="D14" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="49"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="44"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="45">
         <v>5</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="16">
         <v>45597</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="43">
+      <c r="E15" s="34">
+        <v>4</v>
+      </c>
+      <c r="F15" s="4">
+        <v>2</v>
+      </c>
+      <c r="G15" s="40">
         <v>6</v>
       </c>
-      <c r="H15" s="39">
-        <v>2</v>
-      </c>
-      <c r="I15" s="37">
-        <v>2</v>
-      </c>
-      <c r="J15" s="26">
+      <c r="H15" s="36">
+        <v>2</v>
+      </c>
+      <c r="I15" s="34">
+        <v>2</v>
+      </c>
+      <c r="J15" s="23">
         <v>6</v>
       </c>
-      <c r="K15" s="26">
-        <v>2</v>
-      </c>
-      <c r="L15" s="34">
-        <v>2</v>
-      </c>
-      <c r="M15" s="31">
+      <c r="K15" s="23">
+        <v>2</v>
+      </c>
+      <c r="L15" s="31">
+        <v>2</v>
+      </c>
+      <c r="M15" s="28">
         <v>3</v>
       </c>
-      <c r="N15" s="23">
+      <c r="N15" s="20">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="46"/>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="47" t="s">
+      <c r="D16" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="49"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="44"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="45">
         <v>6</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="16">
         <v>45600</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="43">
+      <c r="E17" s="34">
         <v>3</v>
       </c>
-      <c r="H17" s="39">
-        <v>2</v>
-      </c>
-      <c r="I17" s="37">
-        <v>2</v>
-      </c>
-      <c r="J17" s="26">
+      <c r="F17" s="4">
+        <v>2</v>
+      </c>
+      <c r="G17" s="40">
         <v>3</v>
       </c>
-      <c r="K17" s="26">
-        <v>2</v>
-      </c>
-      <c r="L17" s="34">
-        <v>2</v>
-      </c>
-      <c r="M17" s="31">
-        <v>2</v>
-      </c>
-      <c r="N17" s="23">
+      <c r="H17" s="36">
+        <v>2</v>
+      </c>
+      <c r="I17" s="34">
+        <v>2</v>
+      </c>
+      <c r="J17" s="23">
+        <v>3</v>
+      </c>
+      <c r="K17" s="23">
+        <v>2</v>
+      </c>
+      <c r="L17" s="31">
+        <v>2</v>
+      </c>
+      <c r="M17" s="28">
+        <v>2</v>
+      </c>
+      <c r="N17" s="20">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="46"/>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="47" t="s">
+      <c r="D18" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="49"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="44"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="45">
         <v>7</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="16">
         <v>45601</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="43">
+      <c r="E19" s="34">
+        <v>4</v>
+      </c>
+      <c r="F19" s="4">
+        <v>2</v>
+      </c>
+      <c r="G19" s="40">
         <v>3</v>
       </c>
-      <c r="H19" s="39">
-        <v>2</v>
-      </c>
-      <c r="I19" s="37">
-        <v>2</v>
-      </c>
-      <c r="J19" s="26">
+      <c r="H19" s="36">
+        <v>2</v>
+      </c>
+      <c r="I19" s="34">
+        <v>2</v>
+      </c>
+      <c r="J19" s="23">
         <v>3</v>
       </c>
-      <c r="K19" s="26">
-        <v>2</v>
-      </c>
-      <c r="L19" s="34">
-        <v>2</v>
-      </c>
-      <c r="M19" s="31">
+      <c r="K19" s="23">
+        <v>2</v>
+      </c>
+      <c r="L19" s="31">
+        <v>2</v>
+      </c>
+      <c r="M19" s="28">
         <v>4</v>
       </c>
-      <c r="N19" s="23">
+      <c r="N19" s="20">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="46"/>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="47" t="s">
+      <c r="D20" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="49"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="44"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="45">
         <v>8</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="16">
         <v>45602</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="43">
-        <v>2</v>
-      </c>
-      <c r="H21" s="39">
-        <v>2</v>
-      </c>
-      <c r="I21" s="37">
+      <c r="E21" s="34">
+        <v>3</v>
+      </c>
+      <c r="F21" s="4">
+        <v>2</v>
+      </c>
+      <c r="G21" s="40">
+        <v>2</v>
+      </c>
+      <c r="H21" s="36">
+        <v>2</v>
+      </c>
+      <c r="I21" s="34">
         <v>4</v>
       </c>
-      <c r="J21" s="26">
-        <v>2</v>
-      </c>
-      <c r="K21" s="26">
-        <v>2</v>
-      </c>
-      <c r="L21" s="34">
+      <c r="J21" s="23">
+        <v>2</v>
+      </c>
+      <c r="K21" s="23">
+        <v>2</v>
+      </c>
+      <c r="L21" s="31">
         <v>4</v>
       </c>
-      <c r="M21" s="31">
+      <c r="M21" s="28">
         <v>4</v>
       </c>
-      <c r="N21" s="23">
+      <c r="N21" s="20">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="46"/>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="47" t="s">
+      <c r="D22" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="49"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="44"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="45">
         <v>9</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C23" s="16">
         <v>45603</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="43">
-        <v>2</v>
-      </c>
-      <c r="H23" s="39">
-        <v>1</v>
-      </c>
-      <c r="I23" s="37">
-        <v>1</v>
-      </c>
-      <c r="J23" s="26">
-        <v>2</v>
-      </c>
-      <c r="K23" s="26">
-        <v>1</v>
-      </c>
-      <c r="L23" s="34">
-        <v>1</v>
-      </c>
-      <c r="M23" s="31">
-        <v>1</v>
-      </c>
-      <c r="N23" s="23">
+      <c r="E23" s="34">
+        <v>3</v>
+      </c>
+      <c r="F23" s="4">
+        <v>1</v>
+      </c>
+      <c r="G23" s="40">
+        <v>2</v>
+      </c>
+      <c r="H23" s="36">
+        <v>1</v>
+      </c>
+      <c r="I23" s="34">
+        <v>1</v>
+      </c>
+      <c r="J23" s="23">
+        <v>2</v>
+      </c>
+      <c r="K23" s="23">
+        <v>1</v>
+      </c>
+      <c r="L23" s="31">
+        <v>1</v>
+      </c>
+      <c r="M23" s="28">
+        <v>1</v>
+      </c>
+      <c r="N23" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="46"/>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="47" t="s">
+      <c r="D24" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="49"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="44"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="45">
         <v>10</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="16">
         <v>45604</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="43">
+      <c r="E25" s="34">
+        <v>5</v>
+      </c>
+      <c r="F25" s="4">
+        <v>2</v>
+      </c>
+      <c r="G25" s="40">
         <v>6</v>
       </c>
-      <c r="H25" s="39">
-        <v>2</v>
-      </c>
-      <c r="I25" s="37">
+      <c r="H25" s="36">
+        <v>2</v>
+      </c>
+      <c r="I25" s="34">
         <v>3</v>
       </c>
-      <c r="J25" s="26">
+      <c r="J25" s="23">
         <v>6</v>
       </c>
-      <c r="K25" s="26">
-        <v>2</v>
-      </c>
-      <c r="L25" s="34">
+      <c r="K25" s="23">
+        <v>2</v>
+      </c>
+      <c r="L25" s="31">
         <v>3</v>
       </c>
-      <c r="M25" s="31">
+      <c r="M25" s="28">
         <v>6</v>
       </c>
-      <c r="N25" s="23">
+      <c r="N25" s="20">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="46"/>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="47" t="s">
+      <c r="D26" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="48"/>
-      <c r="N26" s="49"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="44"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="45">
         <v>11</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="16">
         <v>45607</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="43">
+      <c r="E27" s="34">
+        <v>6</v>
+      </c>
+      <c r="F27" s="4">
+        <v>1</v>
+      </c>
+      <c r="G27" s="40">
         <v>3</v>
       </c>
-      <c r="H27" s="39">
-        <v>1</v>
-      </c>
-      <c r="I27" s="37">
-        <v>1</v>
-      </c>
-      <c r="J27" s="26">
+      <c r="H27" s="36">
+        <v>1</v>
+      </c>
+      <c r="I27" s="34">
+        <v>1</v>
+      </c>
+      <c r="J27" s="23">
         <v>3</v>
       </c>
-      <c r="K27" s="26">
-        <v>1</v>
-      </c>
-      <c r="L27" s="34">
-        <v>1</v>
-      </c>
-      <c r="M27" s="31">
-        <v>1</v>
-      </c>
-      <c r="N27" s="23">
+      <c r="K27" s="23">
+        <v>1</v>
+      </c>
+      <c r="L27" s="31">
+        <v>1</v>
+      </c>
+      <c r="M27" s="28">
+        <v>1</v>
+      </c>
+      <c r="N27" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="46"/>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="24"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="21"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="45">
         <v>12</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29" s="16">
         <v>45608</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="43">
+      <c r="E29" s="34">
+        <v>5</v>
+      </c>
+      <c r="F29" s="4">
+        <v>1</v>
+      </c>
+      <c r="G29" s="40">
         <v>3</v>
       </c>
-      <c r="H29" s="39">
-        <v>1</v>
-      </c>
-      <c r="I29" s="37">
+      <c r="H29" s="36">
+        <v>1</v>
+      </c>
+      <c r="I29" s="34">
         <v>3</v>
       </c>
-      <c r="J29" s="26">
+      <c r="J29" s="23">
         <v>3</v>
       </c>
-      <c r="K29" s="26">
-        <v>1</v>
-      </c>
-      <c r="L29" s="34">
+      <c r="K29" s="23">
+        <v>1</v>
+      </c>
+      <c r="L29" s="31">
         <v>3</v>
       </c>
-      <c r="M29" s="31">
+      <c r="M29" s="28">
         <v>4</v>
       </c>
-      <c r="N29" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="N29" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="46"/>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="47" t="s">
+      <c r="D30" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="48"/>
-      <c r="N30" s="49"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="44"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="45">
         <v>13</v>
       </c>
-      <c r="C31" s="19">
+      <c r="C31" s="16">
         <v>45609</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="43">
-        <v>2</v>
-      </c>
-      <c r="H31" s="39">
-        <v>2</v>
-      </c>
-      <c r="I31" s="37">
-        <v>1</v>
-      </c>
-      <c r="J31" s="26">
-        <v>2</v>
-      </c>
-      <c r="K31" s="26">
-        <v>2</v>
-      </c>
-      <c r="L31" s="34">
-        <v>1</v>
-      </c>
-      <c r="M31" s="31">
-        <v>2</v>
-      </c>
-      <c r="N31" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E31" s="34">
+        <v>4</v>
+      </c>
+      <c r="F31" s="4">
+        <v>2</v>
+      </c>
+      <c r="G31" s="40">
+        <v>2</v>
+      </c>
+      <c r="H31" s="36">
+        <v>2</v>
+      </c>
+      <c r="I31" s="34">
+        <v>1</v>
+      </c>
+      <c r="J31" s="23">
+        <v>2</v>
+      </c>
+      <c r="K31" s="23">
+        <v>2</v>
+      </c>
+      <c r="L31" s="31">
+        <v>1</v>
+      </c>
+      <c r="M31" s="28">
+        <v>2</v>
+      </c>
+      <c r="N31" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="46"/>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="47" t="s">
+      <c r="D32" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="48"/>
-      <c r="M32" s="48"/>
-      <c r="N32" s="49"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43"/>
+      <c r="N32" s="44"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="45">
         <v>14</v>
       </c>
-      <c r="C33" s="19">
+      <c r="C33" s="16">
         <v>45609</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="43">
-        <v>2</v>
-      </c>
-      <c r="H33" s="39">
-        <v>1</v>
-      </c>
-      <c r="I33" s="37">
-        <v>1</v>
-      </c>
-      <c r="J33" s="26">
-        <v>2</v>
-      </c>
-      <c r="K33" s="26">
-        <v>1</v>
-      </c>
-      <c r="L33" s="34">
-        <v>1</v>
-      </c>
-      <c r="M33" s="31">
+      <c r="E33" s="34">
+        <v>3</v>
+      </c>
+      <c r="F33" s="4">
+        <v>1</v>
+      </c>
+      <c r="G33" s="40">
+        <v>2</v>
+      </c>
+      <c r="H33" s="36">
+        <v>1</v>
+      </c>
+      <c r="I33" s="34">
+        <v>1</v>
+      </c>
+      <c r="J33" s="23">
+        <v>2</v>
+      </c>
+      <c r="K33" s="23">
+        <v>1</v>
+      </c>
+      <c r="L33" s="31">
+        <v>1</v>
+      </c>
+      <c r="M33" s="28">
         <v>6</v>
       </c>
-      <c r="N33" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N33" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="46"/>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="47" t="s">
+      <c r="D34" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="E34" s="48"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="48"/>
-      <c r="K34" s="48"/>
-      <c r="L34" s="48"/>
-      <c r="M34" s="48"/>
-      <c r="N34" s="49"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="44"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="45">
         <v>15</v>
       </c>
-      <c r="C35" s="19">
+      <c r="C35" s="16">
         <v>45610</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="43">
+      <c r="E35" s="34">
+        <v>5</v>
+      </c>
+      <c r="F35" s="4">
+        <v>2</v>
+      </c>
+      <c r="G35" s="40">
         <v>6</v>
       </c>
-      <c r="H35" s="39">
-        <v>2</v>
-      </c>
-      <c r="I35" s="37">
-        <v>1</v>
-      </c>
-      <c r="J35" s="26">
+      <c r="H35" s="36">
+        <v>2</v>
+      </c>
+      <c r="I35" s="34">
+        <v>1</v>
+      </c>
+      <c r="J35" s="23">
         <v>6</v>
       </c>
-      <c r="K35" s="26">
-        <v>2</v>
-      </c>
-      <c r="L35" s="34">
-        <v>1</v>
-      </c>
-      <c r="M35" s="31">
-        <v>1</v>
-      </c>
-      <c r="N35" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K35" s="23">
+        <v>2</v>
+      </c>
+      <c r="L35" s="31">
+        <v>1</v>
+      </c>
+      <c r="M35" s="28">
+        <v>1</v>
+      </c>
+      <c r="N35" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="46"/>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="47" t="s">
+      <c r="D36" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="48"/>
-      <c r="I36" s="48"/>
-      <c r="J36" s="48"/>
-      <c r="K36" s="48"/>
-      <c r="L36" s="48"/>
-      <c r="M36" s="48"/>
-      <c r="N36" s="49"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="44"/>
     </row>
     <row r="37" spans="2:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="45">
         <v>16</v>
       </c>
-      <c r="C37" s="19">
+      <c r="C37" s="16">
         <v>45611</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="43">
+      <c r="E37" s="34">
+        <v>4</v>
+      </c>
+      <c r="F37" s="4">
+        <v>1</v>
+      </c>
+      <c r="G37" s="40">
         <v>5</v>
       </c>
-      <c r="H37" s="39">
-        <v>1</v>
-      </c>
-      <c r="I37" s="37">
+      <c r="H37" s="36">
+        <v>1</v>
+      </c>
+      <c r="I37" s="34">
         <v>4</v>
       </c>
-      <c r="J37" s="26">
+      <c r="J37" s="23">
         <v>5</v>
       </c>
-      <c r="K37" s="26">
-        <v>1</v>
-      </c>
-      <c r="L37" s="34">
+      <c r="K37" s="23">
+        <v>1</v>
+      </c>
+      <c r="L37" s="31">
         <v>4</v>
       </c>
-      <c r="M37" s="31">
+      <c r="M37" s="28">
         <v>7</v>
       </c>
-      <c r="N37" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N37" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="46"/>
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="47" t="s">
+      <c r="D38" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="E38" s="48"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="48"/>
-      <c r="J38" s="48"/>
-      <c r="K38" s="48"/>
-      <c r="L38" s="48"/>
-      <c r="M38" s="48"/>
-      <c r="N38" s="49"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="43"/>
+      <c r="N38" s="44"/>
     </row>
     <row r="39" spans="2:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="45">
         <v>17</v>
       </c>
-      <c r="C39" s="19">
+      <c r="C39" s="16">
         <v>45614</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="4"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="43">
+      <c r="E39" s="34">
+        <v>4</v>
+      </c>
+      <c r="F39" s="4">
+        <v>1</v>
+      </c>
+      <c r="G39" s="40">
         <v>3</v>
       </c>
-      <c r="H39" s="39">
-        <v>1</v>
-      </c>
-      <c r="I39" s="37">
-        <v>2</v>
-      </c>
-      <c r="J39" s="26">
+      <c r="H39" s="36">
+        <v>1</v>
+      </c>
+      <c r="I39" s="34">
+        <v>2</v>
+      </c>
+      <c r="J39" s="23">
         <v>3</v>
       </c>
-      <c r="K39" s="26">
-        <v>1</v>
-      </c>
-      <c r="L39" s="34">
-        <v>2</v>
-      </c>
-      <c r="M39" s="31">
+      <c r="K39" s="23">
+        <v>1</v>
+      </c>
+      <c r="L39" s="31">
+        <v>2</v>
+      </c>
+      <c r="M39" s="28">
         <v>6</v>
       </c>
-      <c r="N39" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N39" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="46"/>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="47" t="s">
+      <c r="D40" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="E40" s="48"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="48"/>
-      <c r="I40" s="48"/>
-      <c r="J40" s="48"/>
-      <c r="K40" s="48"/>
-      <c r="L40" s="48"/>
-      <c r="M40" s="48"/>
-      <c r="N40" s="49"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="43"/>
+      <c r="M40" s="43"/>
+      <c r="N40" s="44"/>
     </row>
     <row r="41" spans="2:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="45">
         <v>18</v>
       </c>
-      <c r="C41" s="19">
+      <c r="C41" s="16">
         <v>45615</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E41" s="4"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="43">
+      <c r="E41" s="34">
+        <v>4</v>
+      </c>
+      <c r="F41" s="4">
+        <v>1</v>
+      </c>
+      <c r="G41" s="40">
         <v>3</v>
       </c>
-      <c r="H41" s="39">
-        <v>1</v>
-      </c>
-      <c r="I41" s="37">
-        <v>1</v>
-      </c>
-      <c r="J41" s="26">
+      <c r="H41" s="36">
+        <v>1</v>
+      </c>
+      <c r="I41" s="34">
+        <v>1</v>
+      </c>
+      <c r="J41" s="23">
         <v>3</v>
       </c>
-      <c r="K41" s="26">
-        <v>1</v>
-      </c>
-      <c r="L41" s="34">
-        <v>1</v>
-      </c>
-      <c r="M41" s="31">
-        <v>1</v>
-      </c>
-      <c r="N41" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K41" s="23">
+        <v>1</v>
+      </c>
+      <c r="L41" s="31">
+        <v>1</v>
+      </c>
+      <c r="M41" s="28">
+        <v>1</v>
+      </c>
+      <c r="N41" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="46"/>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="47" t="s">
+      <c r="D42" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E42" s="48"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="48"/>
-      <c r="H42" s="48"/>
-      <c r="I42" s="48"/>
-      <c r="J42" s="48"/>
-      <c r="K42" s="48"/>
-      <c r="L42" s="48"/>
-      <c r="M42" s="48"/>
-      <c r="N42" s="49"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="43"/>
+      <c r="K42" s="43"/>
+      <c r="L42" s="43"/>
+      <c r="M42" s="43"/>
+      <c r="N42" s="44"/>
     </row>
     <row r="43" spans="2:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="45">
         <v>19</v>
       </c>
-      <c r="C43" s="19">
+      <c r="C43" s="16">
         <v>45616</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E43" s="4"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="43">
-        <v>2</v>
-      </c>
-      <c r="H43" s="39">
-        <v>2</v>
-      </c>
-      <c r="I43" s="37">
-        <v>2</v>
-      </c>
-      <c r="J43" s="26">
-        <v>2</v>
-      </c>
-      <c r="K43" s="26">
-        <v>2</v>
-      </c>
-      <c r="L43" s="34">
-        <v>2</v>
-      </c>
-      <c r="M43" s="31">
+      <c r="E43" s="34">
+        <v>4</v>
+      </c>
+      <c r="F43" s="4">
+        <v>2</v>
+      </c>
+      <c r="G43" s="40">
+        <v>2</v>
+      </c>
+      <c r="H43" s="36">
+        <v>2</v>
+      </c>
+      <c r="I43" s="34">
+        <v>2</v>
+      </c>
+      <c r="J43" s="23">
+        <v>2</v>
+      </c>
+      <c r="K43" s="23">
+        <v>2</v>
+      </c>
+      <c r="L43" s="31">
+        <v>2</v>
+      </c>
+      <c r="M43" s="28">
         <v>6</v>
       </c>
-      <c r="N43" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N43" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B44" s="46"/>
-      <c r="C44" s="16" t="s">
+      <c r="C44" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D44" s="47" t="s">
+      <c r="D44" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E44" s="48"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="48"/>
-      <c r="J44" s="48"/>
-      <c r="K44" s="48"/>
-      <c r="L44" s="48"/>
-      <c r="M44" s="48"/>
-      <c r="N44" s="49"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
+      <c r="K44" s="43"/>
+      <c r="L44" s="43"/>
+      <c r="M44" s="43"/>
+      <c r="N44" s="44"/>
     </row>
     <row r="45" spans="2:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="45">
         <v>20</v>
       </c>
-      <c r="C45" s="19">
+      <c r="C45" s="16">
         <v>45617</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E45" s="4"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="43">
-        <v>2</v>
-      </c>
-      <c r="H45" s="39">
-        <v>2</v>
-      </c>
-      <c r="I45" s="37">
-        <v>2</v>
-      </c>
-      <c r="J45" s="26">
-        <v>2</v>
-      </c>
-      <c r="K45" s="26">
-        <v>2</v>
-      </c>
-      <c r="L45" s="34">
-        <v>2</v>
-      </c>
-      <c r="M45" s="31">
+      <c r="E45" s="34">
+        <v>3</v>
+      </c>
+      <c r="F45" s="4">
+        <v>2</v>
+      </c>
+      <c r="G45" s="40">
+        <v>2</v>
+      </c>
+      <c r="H45" s="36">
+        <v>2</v>
+      </c>
+      <c r="I45" s="34">
+        <v>2</v>
+      </c>
+      <c r="J45" s="23">
+        <v>2</v>
+      </c>
+      <c r="K45" s="23">
+        <v>2</v>
+      </c>
+      <c r="L45" s="31">
+        <v>2</v>
+      </c>
+      <c r="M45" s="28">
         <v>7</v>
       </c>
-      <c r="N45" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N45" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46" s="46"/>
-      <c r="C46" s="16" t="s">
+      <c r="C46" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D46" s="47" t="s">
+      <c r="D46" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="E46" s="48"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="48"/>
-      <c r="H46" s="48"/>
-      <c r="I46" s="48"/>
-      <c r="J46" s="48"/>
-      <c r="K46" s="48"/>
-      <c r="L46" s="48"/>
-      <c r="M46" s="48"/>
-      <c r="N46" s="49"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="43"/>
+      <c r="K46" s="43"/>
+      <c r="L46" s="43"/>
+      <c r="M46" s="43"/>
+      <c r="N46" s="44"/>
     </row>
     <row r="47" spans="2:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="45">
         <v>21</v>
       </c>
-      <c r="C47" s="19">
+      <c r="C47" s="16">
         <v>45618</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E47" s="4"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="43">
+      <c r="E47" s="34">
+        <v>8</v>
+      </c>
+      <c r="F47" s="4">
+        <v>1</v>
+      </c>
+      <c r="G47" s="40">
         <v>6</v>
       </c>
-      <c r="H47" s="39">
-        <v>1</v>
-      </c>
-      <c r="I47" s="37">
-        <v>2</v>
-      </c>
-      <c r="J47" s="26">
+      <c r="H47" s="36">
+        <v>1</v>
+      </c>
+      <c r="I47" s="34">
+        <v>2</v>
+      </c>
+      <c r="J47" s="23">
         <v>6</v>
       </c>
-      <c r="K47" s="26">
-        <v>1</v>
-      </c>
-      <c r="L47" s="34">
-        <v>2</v>
-      </c>
-      <c r="M47" s="31">
+      <c r="K47" s="23">
+        <v>1</v>
+      </c>
+      <c r="L47" s="31">
+        <v>2</v>
+      </c>
+      <c r="M47" s="28">
         <v>6</v>
       </c>
-      <c r="N47" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N47" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="46"/>
-      <c r="C48" s="16" t="s">
+      <c r="C48" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="47" t="s">
+      <c r="D48" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="48"/>
-      <c r="I48" s="48"/>
-      <c r="J48" s="48"/>
-      <c r="K48" s="48"/>
-      <c r="L48" s="48"/>
-      <c r="M48" s="48"/>
-      <c r="N48" s="49"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="43"/>
+      <c r="L48" s="43"/>
+      <c r="M48" s="43"/>
+      <c r="N48" s="44"/>
     </row>
     <row r="49" spans="2:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="45">
         <v>22</v>
       </c>
-      <c r="C49" s="19">
+      <c r="C49" s="16">
         <v>45618</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E49" s="4"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="43">
+      <c r="E49" s="34">
+        <v>6</v>
+      </c>
+      <c r="F49" s="4">
+        <v>2</v>
+      </c>
+      <c r="G49" s="40">
         <v>5</v>
       </c>
-      <c r="H49" s="39">
-        <v>2</v>
-      </c>
-      <c r="I49" s="37">
-        <v>1</v>
-      </c>
-      <c r="J49" s="26">
+      <c r="H49" s="36">
+        <v>2</v>
+      </c>
+      <c r="I49" s="34">
+        <v>1</v>
+      </c>
+      <c r="J49" s="23">
         <v>5</v>
       </c>
-      <c r="K49" s="26">
-        <v>2</v>
-      </c>
-      <c r="L49" s="34">
-        <v>1</v>
-      </c>
-      <c r="M49" s="31">
-        <v>2</v>
-      </c>
-      <c r="N49" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K49" s="23">
+        <v>2</v>
+      </c>
+      <c r="L49" s="31">
+        <v>1</v>
+      </c>
+      <c r="M49" s="28">
+        <v>2</v>
+      </c>
+      <c r="N49" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B50" s="46"/>
-      <c r="C50" s="16" t="s">
+      <c r="C50" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D50" s="47" t="s">
+      <c r="D50" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="48"/>
-      <c r="H50" s="48"/>
-      <c r="I50" s="48"/>
-      <c r="J50" s="48"/>
-      <c r="K50" s="48"/>
-      <c r="L50" s="48"/>
-      <c r="M50" s="48"/>
-      <c r="N50" s="49"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="43"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="43"/>
+      <c r="K50" s="43"/>
+      <c r="L50" s="43"/>
+      <c r="M50" s="43"/>
+      <c r="N50" s="44"/>
     </row>
     <row r="51" spans="2:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="45">
         <v>23</v>
       </c>
-      <c r="C51" s="19">
+      <c r="C51" s="16">
         <v>45621</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E51" s="4"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="43">
-        <v>1</v>
-      </c>
-      <c r="H51" s="39">
-        <v>2</v>
-      </c>
-      <c r="I51" s="37">
-        <v>1</v>
-      </c>
-      <c r="J51" s="26">
-        <v>1</v>
-      </c>
-      <c r="K51" s="26">
-        <v>2</v>
-      </c>
-      <c r="L51" s="34">
-        <v>1</v>
-      </c>
-      <c r="M51" s="31">
+      <c r="E51" s="34">
+        <v>2</v>
+      </c>
+      <c r="F51" s="4">
+        <v>2</v>
+      </c>
+      <c r="G51" s="40">
+        <v>1</v>
+      </c>
+      <c r="H51" s="36">
+        <v>2</v>
+      </c>
+      <c r="I51" s="34">
+        <v>1</v>
+      </c>
+      <c r="J51" s="23">
+        <v>1</v>
+      </c>
+      <c r="K51" s="23">
+        <v>2</v>
+      </c>
+      <c r="L51" s="31">
+        <v>1</v>
+      </c>
+      <c r="M51" s="28">
         <v>7</v>
       </c>
-      <c r="N51" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N51" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B52" s="46"/>
-      <c r="C52" s="16" t="s">
+      <c r="C52" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D52" s="47" t="s">
+      <c r="D52" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="E52" s="48"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="48"/>
-      <c r="H52" s="48"/>
-      <c r="I52" s="48"/>
-      <c r="J52" s="48"/>
-      <c r="K52" s="48"/>
-      <c r="L52" s="48"/>
-      <c r="M52" s="48"/>
-      <c r="N52" s="49"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="43"/>
+      <c r="I52" s="43"/>
+      <c r="J52" s="43"/>
+      <c r="K52" s="43"/>
+      <c r="L52" s="43"/>
+      <c r="M52" s="43"/>
+      <c r="N52" s="44"/>
     </row>
     <row r="53" spans="2:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="45">
         <v>24</v>
       </c>
-      <c r="C53" s="19">
+      <c r="C53" s="16">
         <v>45621</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E53" s="4"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="43">
+      <c r="E53" s="34">
+        <v>5</v>
+      </c>
+      <c r="F53" s="4">
+        <v>1</v>
+      </c>
+      <c r="G53" s="40">
         <v>4</v>
       </c>
-      <c r="H53" s="39">
-        <v>1</v>
-      </c>
-      <c r="I53" s="37">
-        <v>1</v>
-      </c>
-      <c r="J53" s="26">
+      <c r="H53" s="36">
+        <v>1</v>
+      </c>
+      <c r="I53" s="34">
+        <v>1</v>
+      </c>
+      <c r="J53" s="23">
         <v>4</v>
       </c>
-      <c r="K53" s="26">
-        <v>1</v>
-      </c>
-      <c r="L53" s="34">
-        <v>1</v>
-      </c>
-      <c r="M53" s="31">
+      <c r="K53" s="23">
+        <v>1</v>
+      </c>
+      <c r="L53" s="31">
+        <v>1</v>
+      </c>
+      <c r="M53" s="28">
         <v>6</v>
       </c>
-      <c r="N53" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="N53" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B54" s="46"/>
-      <c r="C54" s="16" t="s">
+      <c r="C54" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="47" t="s">
+      <c r="D54" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="E54" s="48"/>
-      <c r="F54" s="48"/>
-      <c r="G54" s="48"/>
-      <c r="H54" s="48"/>
-      <c r="I54" s="48"/>
-      <c r="J54" s="48"/>
-      <c r="K54" s="48"/>
-      <c r="L54" s="48"/>
-      <c r="M54" s="48"/>
-      <c r="N54" s="49"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="43"/>
+      <c r="H54" s="43"/>
+      <c r="I54" s="43"/>
+      <c r="J54" s="43"/>
+      <c r="K54" s="43"/>
+      <c r="L54" s="43"/>
+      <c r="M54" s="43"/>
+      <c r="N54" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="D42:N42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D44:N44"/>
+    <mergeCell ref="D34:N34"/>
+    <mergeCell ref="D38:N38"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="D32:N32"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="D40:N40"/>
+    <mergeCell ref="D26:N26"/>
+    <mergeCell ref="D30:N30"/>
+    <mergeCell ref="D14:N14"/>
+    <mergeCell ref="D16:N16"/>
+    <mergeCell ref="D18:N18"/>
+    <mergeCell ref="D20:N20"/>
+    <mergeCell ref="D22:N22"/>
+    <mergeCell ref="D12:N12"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:N5"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="D8:N8"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
     <mergeCell ref="D24:N24"/>
     <mergeCell ref="D52:N52"/>
     <mergeCell ref="D54:N54"/>
@@ -2544,40 +2670,6 @@
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="D36:N36"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:N5"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="D8:N8"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="D32:N32"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="D40:N40"/>
-    <mergeCell ref="D26:N26"/>
-    <mergeCell ref="D30:N30"/>
-    <mergeCell ref="D14:N14"/>
-    <mergeCell ref="D16:N16"/>
-    <mergeCell ref="D18:N18"/>
-    <mergeCell ref="D20:N20"/>
-    <mergeCell ref="D22:N22"/>
-    <mergeCell ref="D12:N12"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="D42:N42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="D44:N44"/>
-    <mergeCell ref="D34:N34"/>
-    <mergeCell ref="D38:N38"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
@@ -2587,6 +2679,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="1954242f-b78b-43af-8e83-5ba0d2119314" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100D51A41D417B25148A7C3BF78BE50B791" ma:contentTypeVersion="12" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="80f47326d8e4d7e188c4dc0666600e31">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1954242f-b78b-43af-8e83-5ba0d2119314" xmlns:ns4="f74da059-3ed3-4dfd-8238-e917d289bcea" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f0f340fb5fad713fe4d63613d37d4fca" ns3:_="" ns4:_="">
     <xsd:import namespace="1954242f-b78b-43af-8e83-5ba0d2119314"/>
@@ -2799,14 +2899,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="1954242f-b78b-43af-8e83-5ba0d2119314" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2817,6 +2909,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E5327D5-C1BE-46D2-A12B-C85F1E6E6136}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="1954242f-b78b-43af-8e83-5ba0d2119314"/>
+    <ds:schemaRef ds:uri="f74da059-3ed3-4dfd-8238-e917d289bcea"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D397C66-8942-4294-A02F-06A148702512}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2835,23 +2944,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E5327D5-C1BE-46D2-A12B-C85F1E6E6136}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="1954242f-b78b-43af-8e83-5ba0d2119314"/>
-    <ds:schemaRef ds:uri="f74da059-3ed3-4dfd-8238-e917d289bcea"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6F446EA-8F00-457A-AE61-BF391EC2B11B}">
   <ds:schemaRefs>
